--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>Transaction_Type</t>
   </si>
@@ -22,13 +22,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Value Date</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Ref No.\/Cheque No.</t>
+    <t>Chq.\/Ref.No.</t>
+  </si>
+  <si>
+    <t>Value Dt</t>
   </si>
   <si>
     <t>Debit</t>
@@ -40,148 +40,256 @@
     <t>Balance</t>
   </si>
   <si>
+    <t>Card Transaction</t>
+  </si>
+  <si>
+    <t>Net Banking</t>
+  </si>
+  <si>
     <t>Auto Debit</t>
   </si>
   <si>
     <t>ATM Transaction</t>
   </si>
   <si>
-    <t>Net Banking</t>
-  </si>
-  <si>
-    <t>31 Jul 2020</t>
-  </si>
-  <si>
-    <t>3 Aug 2020</t>
-  </si>
-  <si>
-    <t>4 Aug 2020</t>
-  </si>
-  <si>
-    <t>5 Aug 2020</t>
-  </si>
-  <si>
-    <t>6 Aug 2020</t>
-  </si>
-  <si>
-    <t>31 Jui 2020</t>
-  </si>
-  <si>
-    <t>31 Ju 2020</t>
-  </si>
-  <si>
-    <t>BULK POSTING-ACHCR SBIN02042000015312 Pay &amp; Асс. Offt-</t>
-  </si>
-  <si>
-    <t>ATM WDL-ATM CASH 4398 PADAM NAGAR SADAR BAZAR-</t>
-  </si>
-  <si>
-    <t>TO TRANSFER-INB Sukanya Priyanshi--</t>
-  </si>
-  <si>
-    <t>TO TRANSFER-INB Sukanya Manisha--</t>
-  </si>
-  <si>
-    <t>TO TRANSFER-INB Freecharge.in FREECHARGE Payments-</t>
-  </si>
-  <si>
-    <t>TO TRANSFER-INB Freshtohome Foods Private-</t>
-  </si>
-  <si>
-    <t>TO TRANSFER-INB Bharti Airtel Ltd-</t>
-  </si>
-  <si>
-    <t>BY TRANSFER-INB Refund of IGAJCEQSE3-</t>
-  </si>
-  <si>
-    <t>BY TRANSFER-INB Refund of IGAJCMYIW9-</t>
-  </si>
-  <si>
-    <t>SI02615634IF248 32711 TRANSFER TO 359</t>
-  </si>
-  <si>
-    <t>SI02615632IF248 32710 TRANSFER TO 375</t>
-  </si>
-  <si>
-    <t>SSBI90699189441 GAJCEQSE3 TRANSFER TO</t>
-  </si>
-  <si>
-    <t>SSBI90714356921 GAJCHESC6 TRANSFER TO</t>
-  </si>
-  <si>
-    <t>FMhu4XRffdXgXII GAJCIKJO4 TRANSFER TO</t>
-  </si>
-  <si>
-    <t>SSBI90749658311 GAJCMYIW9 TRANSFER TO</t>
-  </si>
-  <si>
-    <t>109924713876IG AJCNGYG6 TRANSFER TO 4</t>
-  </si>
-  <si>
-    <t>SSBI9069918944 1IXGATQUDD9 TRANSFER F</t>
-  </si>
-  <si>
-    <t>SSBI9074965831 11XGATRCSU4 TRANSFER F</t>
-  </si>
-  <si>
-    <t>10,000.00</t>
-  </si>
-  <si>
-    <t>5,000.00</t>
+    <t>Bill Pay</t>
+  </si>
+  <si>
+    <t>01/04/19</t>
+  </si>
+  <si>
+    <t>06/04/19</t>
+  </si>
+  <si>
+    <t>08/04/19</t>
+  </si>
+  <si>
+    <t>11/04/19</t>
+  </si>
+  <si>
+    <t>12/04/19</t>
+  </si>
+  <si>
+    <t>13/04/19</t>
+  </si>
+  <si>
+    <t>14/04/19</t>
+  </si>
+  <si>
+    <t>18/04/19</t>
+  </si>
+  <si>
+    <t>25/04/19</t>
+  </si>
+  <si>
+    <t>POS 416021XXXXXX6378 GOOGLE *SERVICES PO S DEBIT</t>
+  </si>
+  <si>
+    <t>POS 416021XXXXXX6378 GOOGLE *GOOGLE POS DEBIT</t>
+  </si>
+  <si>
+    <t>NEFT CR-KKBK0000958-THE JUICE FACTORY-RO HIT GUPTA-KKBKH19096847951</t>
+  </si>
+  <si>
+    <t>NEFT DR-SBIN00CARDS-STATE BANK OF INDIA- NETBANK, MUM-N096190795509216-CARD PAYME NT</t>
+  </si>
+  <si>
+    <t>EMI 45386544 CHQ S45386544126 0419453865 44</t>
+  </si>
+  <si>
+    <t>CASH DEP KASHMERE GAT</t>
+  </si>
+  <si>
+    <t>IB BILLPAY DR-HDFCZF-552365XXXXXX7203</t>
+  </si>
+  <si>
+    <t>IMPS-910117950895-MR ROHIT GUPTA-HDFC- XXXXXXXXXXXXX3401-INETIMPS00082506482</t>
+  </si>
+  <si>
+    <t>NEFT DR-SBIN00CARDS-STATE BANK OF INDIA- NETBANK, MUM-N101190800078205-CARD PAYME NT</t>
+  </si>
+  <si>
+    <t>POS 416021XXXXXX6378 MSW*DEEPAK FOAM POS DEBIT</t>
+  </si>
+  <si>
+    <t>POS 416021XXXXXX6378 BURGER KING POS DEB IT</t>
+  </si>
+  <si>
+    <t>POS 416021XXXXXX6378 MILK STREET LLP POS DEBIT</t>
+  </si>
+  <si>
+    <t>ATW-416021XXXXXX6378-S1ANDH97-WEST DELHI</t>
+  </si>
+  <si>
+    <t>NWD-416021XXXXXX6378-00726068-DELHI</t>
+  </si>
+  <si>
+    <t>IMPS-911512547385-JATIN-HDFC-XXXXXXXXXXX 5614-HARE KRISHNA</t>
+  </si>
+  <si>
+    <t>0000909037678376</t>
+  </si>
+  <si>
+    <t>0000909075266695</t>
+  </si>
+  <si>
+    <t>KKBKH19096847951</t>
+  </si>
+  <si>
+    <t>N096190795509216</t>
+  </si>
+  <si>
+    <t>000000000000000</t>
+  </si>
+  <si>
+    <t>BB11141417778967</t>
+  </si>
+  <si>
+    <t>0000910117950895</t>
+  </si>
+  <si>
+    <t>N101190800078205</t>
+  </si>
+  <si>
+    <t>0000910221690600</t>
+  </si>
+  <si>
+    <t>0000000000062869</t>
+  </si>
+  <si>
+    <t>0000910306414218</t>
+  </si>
+  <si>
+    <t>0000000000003443</t>
+  </si>
+  <si>
+    <t>0000910818021551</t>
+  </si>
+  <si>
+    <t>0000911512547385</t>
+  </si>
+  <si>
+    <t>01\/04\/19</t>
+  </si>
+  <si>
+    <t>06\/04\/19</t>
+  </si>
+  <si>
+    <t>08\/04\/19</t>
+  </si>
+  <si>
+    <t>11\/04\/19</t>
+  </si>
+  <si>
+    <t>12\/04\/19</t>
+  </si>
+  <si>
+    <t>13\/04\/19</t>
+  </si>
+  <si>
+    <t>14\/04\/19</t>
+  </si>
+  <si>
+    <t>18\/04\/19</t>
+  </si>
+  <si>
+    <t>25\/04\/19</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
+    <t>4,933.00</t>
+  </si>
+  <si>
+    <t>16,119.00</t>
+  </si>
+  <si>
+    <t>20,000.00</t>
+  </si>
+  <si>
+    <t>50,000.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>249.90</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>3,000.00</t>
   </si>
   <si>
     <t>2,000.00</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>619.00</t>
-  </si>
-  <si>
-    <t>149.00</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>44,595.00</t>
-  </si>
-  <si>
-    <t>49,010.18</t>
-  </si>
-  <si>
-    <t>39,010.18</t>
-  </si>
-  <si>
-    <t>34,010.18</t>
-  </si>
-  <si>
-    <t>32,010.18</t>
-  </si>
-  <si>
-    <t>31,910.18</t>
-  </si>
-  <si>
-    <t>31,880.18</t>
-  </si>
-  <si>
-    <t>31,261.18</t>
-  </si>
-  <si>
-    <t>31,112.18</t>
-  </si>
-  <si>
-    <t>31,063.18</t>
-  </si>
-  <si>
-    <t>31,163.18</t>
-  </si>
-  <si>
-    <t>31,312.18</t>
+    <t>30,000.00</t>
+  </si>
+  <si>
+    <t>25,000.00</t>
+  </si>
+  <si>
+    <t>43,000.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>153.15</t>
+  </si>
+  <si>
+    <t>103.15</t>
+  </si>
+  <si>
+    <t>104.15</t>
+  </si>
+  <si>
+    <t>30,104.15</t>
+  </si>
+  <si>
+    <t>25,171.15</t>
+  </si>
+  <si>
+    <t>9,052.15</t>
+  </si>
+  <si>
+    <t>34,052.15</t>
+  </si>
+  <si>
+    <t>14,052.15</t>
+  </si>
+  <si>
+    <t>57,052.15</t>
+  </si>
+  <si>
+    <t>7,052.15</t>
+  </si>
+  <si>
+    <t>6,502.15</t>
+  </si>
+  <si>
+    <t>6,252.25</t>
+  </si>
+  <si>
+    <t>6,117.25</t>
+  </si>
+  <si>
+    <t>3,117.25</t>
+  </si>
+  <si>
+    <t>1,117.25</t>
+  </si>
+  <si>
+    <t>1,867.25</t>
   </si>
 </sst>
 </file>
@@ -539,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,108 +684,114 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -685,137 +799,252 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Transaction_Type</t>
   </si>
@@ -22,10 +22,13 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Value Date</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Chq.\/Ref. No</t>
+    <t>Ref No.\/Cheque No.</t>
   </si>
   <si>
     <t>Debit</t>
@@ -37,178 +40,148 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Bill Pay</t>
-  </si>
-  <si>
     <t>Auto Debit</t>
   </si>
   <si>
-    <t>Payment Gateway</t>
-  </si>
-  <si>
     <t>ATM Transaction</t>
   </si>
   <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t>14-May-2020</t>
-  </si>
-  <si>
-    <t>15-May-2020</t>
-  </si>
-  <si>
-    <t>16-May-2020</t>
-  </si>
-  <si>
-    <t>24-May-2020</t>
-  </si>
-  <si>
-    <t>01-Jun-2020</t>
-  </si>
-  <si>
-    <t>02-Jun-2020</t>
-  </si>
-  <si>
-    <t>10-Jun-2020</t>
-  </si>
-  <si>
-    <t>12-Jun-2020</t>
-  </si>
-  <si>
-    <t>14-Jun-2020</t>
-  </si>
-  <si>
-    <t>18-Jun-2020</t>
-  </si>
-  <si>
-    <t>20-Jun-2020</t>
-  </si>
-  <si>
-    <t>Brought Forward</t>
-  </si>
-  <si>
-    <t>UPIO13636603143DRPhonYESBBILL DESKPPyblPayme 002261100000025PhonePe OthPSPPayment for category Id</t>
-  </si>
-  <si>
-    <t>UPI013716551281DRPhonYESBBILL DESKPPyblPayme 002261100000025PhonePe OthPSPPayment for category Id</t>
-  </si>
-  <si>
-    <t>To ECS Return 20 May 2020 ValueDate20MAY20</t>
-  </si>
-  <si>
-    <t>UPIO15415982190CRRASHHDFC8915 53272paytmNA 15591140004683RASHMI TRIPATHI OthPSPNA</t>
-  </si>
-  <si>
-    <t>CASH DEPOSIT BRANCH 0544INDRAPRASHTA EXTN</t>
-  </si>
-  <si>
-    <t>UPIO16228769567DRFlipYESBIDFCB NPLyblPayment 002261100000025Flipkart Pay Later OthPSPPayment from PhonePe</t>
-  </si>
-  <si>
-    <t>UPIO16203229499DRPaytPYTMtmpt mbbppaytmOid1 19744201000007Paytm OthPSPOid11091212653Paytm Ut</t>
-  </si>
-  <si>
-    <t>ICICI PRUDENTIAL LIF Zone Serial 3638</t>
-  </si>
-  <si>
-    <t>To Cash Deposit Home Branch ValueDate10JUN20</t>
-  </si>
-  <si>
-    <t>UPIO17081360581DRPaytPYTMỊ epaytmOid1113 19744201000007Paytm Idea Mobile Recharge OthPSPOid11131666254Paytm Id</t>
-  </si>
-  <si>
-    <t>CASH DEPOSIT BRANCH</t>
-  </si>
-  <si>
-    <t>АCH DEBITTXRX3772357BDECSInvescoM F NACH INTERFACE 20200620</t>
-  </si>
-  <si>
-    <t>146032</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>171.00</t>
-  </si>
-  <si>
-    <t>253.50</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>424.00</t>
-  </si>
-  <si>
-    <t>1,111.00</t>
-  </si>
-  <si>
-    <t>20,450.00</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>335.47</t>
-  </si>
-  <si>
-    <t>79.00</t>
+    <t>Net Banking</t>
+  </si>
+  <si>
+    <t>31 Jul 2020</t>
+  </si>
+  <si>
+    <t>3 Aug 2020</t>
+  </si>
+  <si>
+    <t>4 Aug 2020</t>
+  </si>
+  <si>
+    <t>5 Aug 2020</t>
+  </si>
+  <si>
+    <t>6 Aug 2020</t>
+  </si>
+  <si>
+    <t>31 Jui 2020</t>
+  </si>
+  <si>
+    <t>31 Ju 2020</t>
+  </si>
+  <si>
+    <t>BULK POSTING-ACHCR SBIN02042000015312 Pay &amp; Асс. Offt-</t>
+  </si>
+  <si>
+    <t>ATM WDL-ATM CASH 4398 PADAM NAGAR SADAR BAZAR-</t>
+  </si>
+  <si>
+    <t>TO TRANSFER-INB Sukanya Priyanshi--</t>
+  </si>
+  <si>
+    <t>TO TRANSFER-INB Sukanya Manisha--</t>
+  </si>
+  <si>
+    <t>TO TRANSFER-INB Freecharge.in FREECHARGE Payments-</t>
+  </si>
+  <si>
+    <t>TO TRANSFER-INB Freshtohome Foods Private-</t>
+  </si>
+  <si>
+    <t>TO TRANSFER-INB Bharti Airtel Ltd-</t>
+  </si>
+  <si>
+    <t>BY TRANSFER-INB Refund of IGAJCEQSE3-</t>
+  </si>
+  <si>
+    <t>BY TRANSFER-INB Refund of IGAJCMYIW9-</t>
+  </si>
+  <si>
+    <t>SI02615634IF248 32711 TRANSFER TO 359</t>
+  </si>
+  <si>
+    <t>SI02615632IF248 32710 TRANSFER TO 375</t>
+  </si>
+  <si>
+    <t>SSBI90699189441 GAJCEQSE3 TRANSFER TO</t>
+  </si>
+  <si>
+    <t>SSBI90714356921 GAJCHESC6 TRANSFER TO</t>
+  </si>
+  <si>
+    <t>FMhu4XRffdXgXII GAJCIKJO4 TRANSFER TO</t>
+  </si>
+  <si>
+    <t>SSBI90749658311 GAJCMYIW9 TRANSFER TO</t>
+  </si>
+  <si>
+    <t>109924713876IG AJCNGYG6 TRANSFER TO 4</t>
+  </si>
+  <si>
+    <t>SSBI9069918944 1IXGATQUDD9 TRANSFER F</t>
+  </si>
+  <si>
+    <t>SSBI9074965831 11XGATRCSU4 TRANSFER F</t>
+  </si>
+  <si>
+    <t>10,000.00</t>
+  </si>
+  <si>
+    <t>5,000.00</t>
   </si>
   <si>
     <t>2,000.00</t>
   </si>
   <si>
-    <t>23,000.00</t>
-  </si>
-  <si>
-    <t>10,000.00</t>
-  </si>
-  <si>
-    <t>624.51</t>
-  </si>
-  <si>
-    <t>424.51</t>
-  </si>
-  <si>
-    <t>253.51</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>23,000.01</t>
-  </si>
-  <si>
-    <t>22,576.01</t>
-  </si>
-  <si>
-    <t>21,465.01</t>
-  </si>
-  <si>
-    <t>1,015.01</t>
-  </si>
-  <si>
-    <t>897.01</t>
-  </si>
-  <si>
-    <t>561.54</t>
-  </si>
-  <si>
-    <t>482.54</t>
-  </si>
-  <si>
-    <t>10,482.54</t>
-  </si>
-  <si>
-    <t>8,482.54</t>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>619.00</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>44,595.00</t>
+  </si>
+  <si>
+    <t>49,010.18</t>
+  </si>
+  <si>
+    <t>39,010.18</t>
+  </si>
+  <si>
+    <t>34,010.18</t>
+  </si>
+  <si>
+    <t>32,010.18</t>
+  </si>
+  <si>
+    <t>31,910.18</t>
+  </si>
+  <si>
+    <t>31,880.18</t>
+  </si>
+  <si>
+    <t>31,261.18</t>
+  </si>
+  <si>
+    <t>31,112.18</t>
+  </si>
+  <si>
+    <t>31,063.18</t>
+  </si>
+  <si>
+    <t>31,163.18</t>
+  </si>
+  <si>
+    <t>31,312.18</t>
   </si>
 </sst>
 </file>
@@ -566,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,260 +567,255 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
       <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
       </c>
       <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
